--- a/2025board-list.xlsx
+++ b/2025board-list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JetDrive1TB/_GitHub/r-shibuya/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD5A106-0434-D045-8AF0-FB728D0E6E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1756E298-775C-104A-B445-BDC1B909F0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="880" windowWidth="35900" windowHeight="25700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -191,9 +191,6 @@
     <t>外側壁面</t>
   </si>
   <si>
-    <t>恵比寿南1丁目19番1号</t>
-  </si>
-  <si>
     <t>恵比寿公園</t>
   </si>
   <si>
@@ -5323,6 +5320,82 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ジュn</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>恵比寿西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>丁目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>番</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>号</t>
+    </r>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ニシ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -5431,7 +5504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5439,7 +5512,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5909,8 +5981,8 @@
   </sheetPr>
   <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I250" sqref="I250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5928,19 +6000,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -5949,13 +6021,13 @@
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5970,20 +6042,20 @@
         <v>12-1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E2" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区渋谷1丁目18番9号</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="str">
@@ -6003,20 +6075,20 @@
         <v>12-2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区渋谷1丁目18番9号</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="str">
@@ -6036,20 +6108,20 @@
         <v>12-3</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目22番8号</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目22番8号</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="str">
@@ -6069,20 +6141,20 @@
         <v>12-4</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区渋谷1丁目20番9号</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="str">
@@ -6102,20 +6174,20 @@
         <v>12-5</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区渋谷1丁目2番17号</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区渋谷1丁目2番17号</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>430</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="str">
@@ -6135,20 +6207,20 @@
         <v>12-6</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目38番7号</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目38番7号</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="str">
@@ -6168,20 +6240,20 @@
         <v>12-7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E8" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目22番8号</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="str">
@@ -6201,20 +6273,20 @@
         <v>13-1</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目4番1号</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目4番1号</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="str">
@@ -6234,20 +6306,20 @@
         <v>13-2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前4丁目20番12号</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前4丁目20番12号</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>343</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="str">
@@ -6267,20 +6339,20 @@
         <v>13-3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前4丁目20番12号</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="str">
@@ -6300,20 +6372,20 @@
         <v>13-4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E12" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目4番1号</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="str">
@@ -6333,20 +6405,20 @@
         <v>13-5</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目6番1号</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前5丁目6番1号</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="str">
@@ -6366,20 +6438,20 @@
         <v>13-6</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目10番14号</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目10番14号</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="str">
@@ -6399,20 +6471,20 @@
         <v>13-7</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目31番15号</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前6丁目31番15号</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="str">
@@ -6445,7 +6517,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -6480,7 +6552,7 @@
         <v>45</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I17" s="5">
         <v>2</v>
@@ -6515,7 +6587,7 @@
         <v>43</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -6550,7 +6622,7 @@
         <v>48</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I19" s="5">
         <v>4</v>
@@ -6572,20 +6644,20 @@
         <v>1-6</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿4丁目20番55号</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿4丁目20番55号</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I20" s="1">
         <v>5</v>
@@ -6607,20 +6679,20 @@
         <v>1-7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E21" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿4丁目21番10号</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I21" s="1">
         <v>6</v>
@@ -6642,20 +6714,20 @@
         <v>1-8</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E22" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿4丁目21番10号</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I22" s="1">
         <v>7</v>
@@ -6677,20 +6749,20 @@
         <v>1-3</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿3丁目11番2号</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿3丁目11番2号</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I23" s="1">
         <v>8</v>
@@ -6712,20 +6784,20 @@
         <v>2-3</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E24" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目27番18号</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I24" s="1">
         <v>9</v>
@@ -6747,20 +6819,20 @@
         <v>2-4</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E25" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目27番18号</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="H25" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I25" s="1">
         <v>10</v>
@@ -6782,20 +6854,20 @@
         <v>2-2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E26" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目27番3号</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I26" s="1">
         <v>11</v>
@@ -6817,20 +6889,20 @@
         <v>2-5</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目32番21号</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目32番21号</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="H27" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I27" s="1">
         <v>12</v>
@@ -6852,20 +6924,20 @@
         <v>2-6</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目17番19号</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目17番19号</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I28" s="1">
         <v>13</v>
@@ -6887,20 +6959,20 @@
         <v>2-7</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目34番10号</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="H29" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I29" s="1">
         <v>14</v>
@@ -6922,20 +6994,20 @@
         <v>2-8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目34番10号</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I30" s="1">
         <v>15</v>
@@ -6957,20 +7029,20 @@
         <v>2-1</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目34番10号</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿2丁目34番10号</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="G31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I31" s="1">
         <v>16</v>
@@ -6992,20 +7064,20 @@
         <v>3-5</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E32" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾5丁目7番4号</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I32" s="1">
         <v>17</v>
@@ -7027,20 +7099,20 @@
         <v>3-6</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E33" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾5丁目7番4号</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I33" s="1">
         <v>18</v>
@@ -7062,20 +7134,20 @@
         <v>3-4</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E34" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾5丁目7番1号</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I34" s="1">
         <v>19</v>
@@ -7097,20 +7169,20 @@
         <v>3-7</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区広尾7丁目16番14号</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区広尾7丁目16番14号</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I35" s="1">
         <v>20</v>
@@ -7132,20 +7204,20 @@
         <v>3-8</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E36" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾5丁目23番8号</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I36" s="1">
         <v>21</v>
@@ -7167,20 +7239,20 @@
         <v>3-1</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿1丁目28番1号</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿1丁目28番1号</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I37" s="1">
         <v>22</v>
@@ -7202,20 +7274,20 @@
         <v>3-3</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E38" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾1丁目9番17号</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I38" s="1">
         <v>23</v>
@@ -7237,20 +7309,20 @@
         <v>3-2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E39" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾1丁目9番17号</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I39" s="1">
         <v>24</v>
@@ -7285,7 +7357,7 @@
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I40" s="1">
         <v>25</v>
@@ -7320,7 +7392,7 @@
         <v>9</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I41" s="1">
         <v>26</v>
@@ -7342,7 +7414,7 @@
         <v>5-2</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E42" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
@@ -7355,7 +7427,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I42" s="1">
         <v>27</v>
@@ -7390,7 +7462,7 @@
         <v>21</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I43" s="1">
         <v>28</v>
@@ -7412,7 +7484,7 @@
         <v>5-1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E44" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
@@ -7425,7 +7497,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I44" s="1">
         <v>29</v>
@@ -7460,7 +7532,7 @@
         <v>15</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I45" s="1">
         <v>30</v>
@@ -7482,20 +7554,20 @@
         <v>5-7</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E46" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾4丁目2番1号</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I46" s="1">
         <v>31</v>
@@ -7530,7 +7602,7 @@
         <v>15</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I47" s="1">
         <v>32</v>
@@ -7552,20 +7624,20 @@
         <v>4-4</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区広尾2丁目3番9号</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E48" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区広尾2丁目3番9号</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="G48" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I48" s="1">
         <v>33</v>
@@ -7587,20 +7659,20 @@
         <v>4-1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E49" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾2丁目5番11号</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I49" s="1">
         <v>34</v>
@@ -7622,20 +7694,20 @@
         <v>4-2</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E50" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区広尾2丁目5番11号</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I50" s="1">
         <v>34</v>
@@ -7657,20 +7729,20 @@
         <v>4-3</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E51" s="4" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目3番3号</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E51" s="4" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目3番3号</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>469</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I51" s="1">
         <v>36</v>
@@ -7692,20 +7764,20 @@
         <v>4-5</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目3番1号</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E52" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目3番1号</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I52" s="1">
         <v>37</v>
@@ -7727,20 +7799,20 @@
         <v>4-6</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目14番13号</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E53" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目14番13号</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I53" s="1">
         <v>38</v>
@@ -7762,20 +7834,20 @@
         <v>1-2</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E54" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿1丁目19番15号</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I54" s="1">
         <v>39</v>
@@ -7797,20 +7869,20 @@
         <v>1-1</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E55" s="3" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿1丁目2番16号</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I55" s="1">
         <v>40</v>
@@ -7832,20 +7904,20 @@
         <v>1-5</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿1丁目1番</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E56" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿1丁目1番</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="G56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>555</v>
+        <v>76</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="I56" s="1">
         <v>41</v>
@@ -7867,20 +7939,20 @@
         <v>4-7</v>
       </c>
       <c r="D57" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目27番先</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E57" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区東3丁目27番先</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>555</v>
+      <c r="H57" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="I57" s="1">
         <v>42</v>
@@ -7902,20 +7974,20 @@
         <v>1-4</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E58" s="3" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区恵比寿4丁目2番6号</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>555</v>
+      <c r="H58" s="1" t="s">
+        <v>554</v>
       </c>
       <c r="I58" s="1">
         <v>43</v>
@@ -7937,20 +8009,20 @@
         <v>19-1</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E59" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木4丁目41番4号</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G59" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="H59" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="1" t="str">
@@ -7970,20 +8042,20 @@
         <v>19-2</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E60" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目33番5号</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="1" t="str">
@@ -8003,20 +8075,20 @@
         <v>19-3</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目33番12号</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E61" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目33番12号</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="1" t="str">
@@ -8036,20 +8108,20 @@
         <v>19-4</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目32番12号</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E62" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目32番12号</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="H62" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="1" t="str">
@@ -8069,20 +8141,20 @@
         <v>19-5</v>
       </c>
       <c r="D63" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目33番先</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="E63" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目33番先</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="1" t="str">
@@ -8102,20 +8174,20 @@
         <v>19-6</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E64" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目47番先</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="1" t="str">
@@ -8135,20 +8207,20 @@
         <v>19-7</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E65" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区初台1丁目51番先</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="1" t="str">
@@ -8168,20 +8240,20 @@
         <v>19-8</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E66" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目56番6号</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="1" t="str">
@@ -8201,20 +8273,20 @@
         <v>19-9</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目32番12号</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E67" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目32番12号</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>215</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="1" t="str">
@@ -8234,20 +8306,20 @@
         <v>30-1</v>
       </c>
       <c r="D68" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目26番6号</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="E68" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目26番6号</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="1" t="str">
@@ -8267,20 +8339,20 @@
         <v>30-2</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E69" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目60番2号</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="1" t="str">
@@ -8300,20 +8372,20 @@
         <v>30-3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E70" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町1丁目63番2号</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="1" t="str">
@@ -8333,20 +8405,20 @@
         <v>30-4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E71" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目42番6号</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="1" t="str">
@@ -8366,20 +8438,20 @@
         <v>30-5</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目1番22号</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E72" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目1番22号</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="1" t="str">
@@ -8399,20 +8471,20 @@
         <v>30-6</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目50番2号</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="E73" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目50番2号</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="1" t="str">
@@ -8432,20 +8504,20 @@
         <v>30-7</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目53番5号</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E74" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目53番5号</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="1" t="str">
@@ -8465,20 +8537,20 @@
         <v>30-8</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目4番1号</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="E75" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目4番1号</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="1" t="str">
@@ -8498,20 +8570,20 @@
         <v>31-1</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町2丁目21番1号</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="E76" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町2丁目21番1号</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="1" t="str">
@@ -8531,20 +8603,20 @@
         <v>31-2</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E77" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町5丁目5番10号</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="1" t="str">
@@ -8564,20 +8636,20 @@
         <v>31-3</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目33番3号</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="E78" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目33番3号</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="1" t="str">
@@ -8597,20 +8669,20 @@
         <v>31-4</v>
       </c>
       <c r="D79" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目39番1号</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E79" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目39番1号</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>318</v>
-      </c>
       <c r="G79" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="1" t="str">
@@ -8630,20 +8702,20 @@
         <v>31-5</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E80" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目12番3号</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="1" t="str">
@@ -8663,20 +8735,20 @@
         <v>31-6</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E81" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目39番1号</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="1" t="str">
@@ -8696,20 +8768,20 @@
         <v>31-7</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町5丁目19番4号</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E82" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町5丁目19番4号</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="1" t="str">
@@ -8729,20 +8801,20 @@
         <v>32-8</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E83" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町2丁目21番1号</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="1" t="str">
@@ -8762,20 +8834,20 @@
         <v>32-1</v>
       </c>
       <c r="D84" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目35番2号</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E84" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目35番2号</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="G84" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="1" t="str">
@@ -8795,20 +8867,20 @@
         <v>32-2</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目30番12号</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E85" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目30番12号</v>
-      </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="H85" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="1" t="str">
@@ -8828,20 +8900,20 @@
         <v>32-3</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E86" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目35番8号</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I86" s="3"/>
       <c r="J86" s="1" t="str">
@@ -8861,20 +8933,20 @@
         <v>32-4</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目9番7号</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E87" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目9番7号</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I87" s="3"/>
       <c r="J87" s="1" t="str">
@@ -8894,20 +8966,20 @@
         <v>32-5</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目40番先</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="E88" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目40番先</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>333</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="1" t="str">
@@ -8927,20 +8999,20 @@
         <v>32-6</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E89" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町4丁目3番1号</v>
       </c>
       <c r="F89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G89" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="H89" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I89" s="3"/>
       <c r="J89" s="1" t="str">
@@ -8960,20 +9032,20 @@
         <v>32-7</v>
       </c>
       <c r="D90" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目45番7号</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="E90" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区本町3丁目45番7号</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="1" t="str">
@@ -8993,20 +9065,20 @@
         <v>32-8</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E91" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区本町5丁目5番7号</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="1" t="str">
@@ -9026,20 +9098,20 @@
         <v>14-1</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目12番8号</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E92" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目12番8号</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="1" t="str">
@@ -9059,20 +9131,20 @@
         <v>14-2</v>
       </c>
       <c r="D93" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前2丁目2番22号</v>
+      </c>
+      <c r="F93" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E93" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前2丁目2番22号</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="G93" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="1" t="str">
@@ -9092,20 +9164,20 @@
         <v>14-3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E94" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目12番8号</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="1" t="str">
@@ -9125,20 +9197,20 @@
         <v>14-4</v>
       </c>
       <c r="D95" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目35番13号</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="G95" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="E95" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目35番13号</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="H95" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="1" t="str">
@@ -9158,20 +9230,20 @@
         <v>14-5</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目2番11号</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E96" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目2番11号</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="1" t="str">
@@ -9191,20 +9263,20 @@
         <v>14-6</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目18番37号</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="E97" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目18番37号</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="H97" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="1" t="str">
@@ -9224,20 +9296,20 @@
         <v>14-7</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E98" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前3丁目12番8号</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="1" t="str">
@@ -9257,20 +9329,20 @@
         <v>15-1</v>
       </c>
       <c r="D99" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目3番6号</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E99" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目3番6号</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="G99" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="1" t="str">
@@ -9290,20 +9362,20 @@
         <v>15-2</v>
       </c>
       <c r="D100" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目4番1号</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E100" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目4番1号</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>367</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="1" t="str">
@@ -9323,20 +9395,20 @@
         <v>15-3</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E101" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目24番6号</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="1" t="str">
@@ -9356,20 +9428,20 @@
         <v>15-4</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E102" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目24番6号</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="1" t="str">
@@ -9389,20 +9461,20 @@
         <v>15-5</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E103" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神宮前1丁目31番5号</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I103" s="3"/>
       <c r="J103" s="1" t="str">
@@ -9422,20 +9494,20 @@
         <v>16-6</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E104" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷2丁目4番1号</v>
       </c>
       <c r="F104" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>370</v>
-      </c>
       <c r="H104" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I104" s="3"/>
       <c r="J104" s="1" t="str">
@@ -9455,20 +9527,20 @@
         <v>16-7</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E105" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷2丁目4番1号</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="1" t="str">
@@ -9488,20 +9560,20 @@
         <v>16-8</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E106" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷3丁目34番8号</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="1" t="str">
@@ -9521,20 +9593,20 @@
         <v>16-1</v>
       </c>
       <c r="D107" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E107" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷1丁目1番24号</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="E107" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷1丁目1番24号</v>
-      </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="H107" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I107" s="3"/>
       <c r="J107" s="1" t="str">
@@ -9554,20 +9626,20 @@
         <v>16-2</v>
       </c>
       <c r="D108" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E108" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷4丁目18番18号</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="E108" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷4丁目18番18号</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I108" s="3"/>
       <c r="J108" s="1" t="str">
@@ -9587,20 +9659,20 @@
         <v>16-3</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E109" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷5丁目9番1号</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E109" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷5丁目9番1号</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>379</v>
-      </c>
       <c r="G109" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I109" s="3"/>
       <c r="J109" s="1" t="str">
@@ -9620,20 +9692,20 @@
         <v>16-4</v>
       </c>
       <c r="D110" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E110" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷1丁目1番14号</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E110" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷1丁目1番14号</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>381</v>
-      </c>
       <c r="G110" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I110" s="3"/>
       <c r="J110" s="1" t="str">
@@ -9653,20 +9725,20 @@
         <v>16-5</v>
       </c>
       <c r="D111" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E111" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷5丁目25番先</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="E111" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷5丁目25番先</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>383</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I111" s="3"/>
       <c r="J111" s="1" t="str">
@@ -9686,20 +9758,20 @@
         <v>16-6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E112" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷5丁目9番1号</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="1" t="str">
@@ -9719,20 +9791,20 @@
         <v>16-7</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E113" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷5丁目9番1号</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>25</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="1" t="str">
@@ -9752,20 +9824,20 @@
         <v>16-8</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E114" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷1丁目32番</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="E114" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区千駄ヶ谷1丁目32番</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I114" s="3"/>
       <c r="J114" s="1" t="str">
@@ -9785,20 +9857,20 @@
         <v>17-1</v>
       </c>
       <c r="D115" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E115" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木1丁目20番8号</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="E115" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木1丁目20番8号</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I115" s="3"/>
       <c r="J115" s="1" t="str">
@@ -9818,20 +9890,20 @@
         <v>17-2</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E116" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目32番5号</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="E116" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目32番5号</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="1" t="str">
@@ -9851,20 +9923,20 @@
         <v>17-3</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E117" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木1丁目37番10号</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I117" s="3"/>
       <c r="J117" s="1" t="str">
@@ -9884,20 +9956,20 @@
         <v>17-4</v>
       </c>
       <c r="D118" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E118" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目35番1号</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E118" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目35番1号</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="H118" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="1" t="str">
@@ -9917,20 +9989,20 @@
         <v>17-5</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E119" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目13番3号</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I119" s="3"/>
       <c r="J119" s="1" t="str">
@@ -9950,20 +10022,20 @@
         <v>17-6</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E120" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目35番1号</v>
       </c>
       <c r="F120" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="H120" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I120" s="3"/>
       <c r="J120" s="1" t="str">
@@ -9983,20 +10055,20 @@
         <v>17-7</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E121" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目35番1号</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="1" t="str">
@@ -10016,20 +10088,20 @@
         <v>17-8</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E122" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目17番5号</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E122" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木2丁目17番5号</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="H122" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I122" s="3"/>
       <c r="J122" s="1" t="str">
@@ -10049,20 +10121,20 @@
         <v>18-1</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E123" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目29番先</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I123" s="3"/>
       <c r="J123" s="1" t="str">
@@ -10082,20 +10154,20 @@
         <v>18-2</v>
       </c>
       <c r="D124" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E124" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目47番1号</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E124" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目47番1号</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G124" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I124" s="3"/>
       <c r="J124" s="1" t="str">
@@ -10115,20 +10187,20 @@
         <v>18-3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E125" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目47番1号</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I125" s="3"/>
       <c r="J125" s="1" t="str">
@@ -10148,20 +10220,20 @@
         <v>18-4</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E126" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目51番8号</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I126" s="3"/>
       <c r="J126" s="1" t="str">
@@ -10181,20 +10253,20 @@
         <v>18-5</v>
       </c>
       <c r="D127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E127" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目34番3号</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E127" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目34番3号</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I127" s="3"/>
       <c r="J127" s="1" t="str">
@@ -10214,20 +10286,20 @@
         <v>18-6</v>
       </c>
       <c r="D128" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E128" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木4丁目4番2号</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E128" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木4丁目4番2号</v>
-      </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="H128" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I128" s="3"/>
       <c r="J128" s="1" t="str">
@@ -10247,20 +10319,20 @@
         <v>18-7</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E129" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目27番先</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I129" s="3"/>
       <c r="J129" s="1" t="str">
@@ -10280,20 +10352,20 @@
         <v>18-8</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E130" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木3丁目31番先</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I130" s="3"/>
       <c r="J130" s="1" t="str">
@@ -10326,7 +10398,7 @@
         <v>6</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I131" s="3"/>
       <c r="J131" s="1" t="str">
@@ -10359,7 +10431,7 @@
         <v>25</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I132" s="3"/>
       <c r="J132" s="1" t="str">
@@ -10392,7 +10464,7 @@
         <v>28</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I133" s="3"/>
       <c r="J133" s="1" t="str">
@@ -10419,13 +10491,13 @@
         <v>https://www.google.co.jp/maps/place/渋谷区東4丁目13番3号</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I134" s="3"/>
       <c r="J134" s="1" t="str">
@@ -10458,7 +10530,7 @@
         <v>32</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="1" t="str">
@@ -10491,7 +10563,7 @@
         <v>35</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I136" s="3"/>
       <c r="J136" s="1" t="str">
@@ -10524,7 +10596,7 @@
         <v>38</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I137" s="3"/>
       <c r="J137" s="1" t="str">
@@ -10557,7 +10629,7 @@
         <v>9</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I138" s="3"/>
       <c r="J138" s="1" t="str">
@@ -10577,20 +10649,20 @@
         <v>8-6</v>
       </c>
       <c r="D139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E139" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区鉢山町8番1号</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E139" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区鉢山町8番1号</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G139" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="H139" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I139" s="3"/>
       <c r="J139" s="1" t="str">
@@ -10610,20 +10682,20 @@
         <v>8-7</v>
       </c>
       <c r="D140" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E140" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代官山町17番10号</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E140" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代官山町17番10号</v>
-      </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="H140" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I140" s="3"/>
       <c r="J140" s="1" t="str">
@@ -10643,20 +10715,20 @@
         <v>9-5</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E141" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区南平台町16番17号</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I141" s="3"/>
       <c r="J141" s="1" t="str">
@@ -10676,20 +10748,20 @@
         <v>9-6</v>
       </c>
       <c r="D142" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E142" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区南平台町8番10号</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E142" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区南平台町8番10号</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="G142" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I142" s="3"/>
       <c r="J142" s="1" t="str">
@@ -10709,20 +10781,20 @@
         <v>10-1</v>
       </c>
       <c r="D143" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区円山町17番3号</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="E143" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区円山町17番3号</v>
-      </c>
-      <c r="F143" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I143" s="3"/>
       <c r="J143" s="1" t="str">
@@ -10742,20 +10814,20 @@
         <v>10-2</v>
       </c>
       <c r="D144" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="E144" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神泉町16番3号</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E144" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神泉町16番3号</v>
-      </c>
-      <c r="F144" s="1" t="s">
-        <v>402</v>
-      </c>
       <c r="G144" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I144" s="3"/>
       <c r="J144" s="1" t="str">
@@ -10775,20 +10847,20 @@
         <v>10-3</v>
       </c>
       <c r="D145" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区松濤2丁目10番7号</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="E145" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区松濤2丁目10番7号</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="G145" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I145" s="3"/>
       <c r="J145" s="1" t="str">
@@ -10808,20 +10880,20 @@
         <v>10-4</v>
       </c>
       <c r="D146" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E146" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区松濤1丁目20番4号</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="E146" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区松濤1丁目20番4号</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>406</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I146" s="3"/>
       <c r="J146" s="1" t="str">
@@ -10841,20 +10913,20 @@
         <v>10-5</v>
       </c>
       <c r="D147" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区松濤1丁目26番6号</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="E147" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区松濤1丁目26番6号</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I147" s="3"/>
       <c r="J147" s="1" t="str">
@@ -10874,20 +10946,20 @@
         <v>10-6</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E148" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区松濤2丁目10番7号</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I148" s="3"/>
       <c r="J148" s="1" t="str">
@@ -10907,20 +10979,20 @@
         <v>10-7</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E149" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区神山町26番2号</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="1" t="str">
@@ -10940,20 +11012,20 @@
         <v>10-8</v>
       </c>
       <c r="D150" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神山町21番11号</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E150" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神山町21番11号</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>412</v>
-      </c>
       <c r="G150" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="1" t="str">
@@ -10973,20 +11045,20 @@
         <v>11-1</v>
       </c>
       <c r="D151" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E151" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神山町9番</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E151" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神山町9番</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="H151" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="1" t="str">
@@ -11006,20 +11078,20 @@
         <v>11-2</v>
       </c>
       <c r="D152" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E152" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神南1丁目7番3号</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="E152" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神南1丁目7番3号</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>417</v>
-      </c>
       <c r="G152" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I152" s="3"/>
       <c r="J152" s="1" t="str">
@@ -11039,20 +11111,20 @@
         <v>11-3</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E153" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区宇田川町1番1号</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I153" s="3"/>
       <c r="J153" s="1" t="str">
@@ -11072,20 +11144,20 @@
         <v>11-4</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E154" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区宇田川町5番1号</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I154" s="3"/>
       <c r="J154" s="1" t="str">
@@ -11105,20 +11177,20 @@
         <v>11-5</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E155" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区宇田川町5番1号</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I155" s="3"/>
       <c r="J155" s="1" t="str">
@@ -11138,20 +11210,20 @@
         <v>11-6</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E156" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区宇田川町1番1号</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="1" t="str">
@@ -11171,20 +11243,20 @@
         <v>11-7</v>
       </c>
       <c r="D157" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E157" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区神南1丁目5番11号</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>423</v>
-      </c>
-      <c r="E157" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区神南1丁目5番11号</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>424</v>
       </c>
       <c r="G157" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="1" t="str">
@@ -11204,20 +11276,20 @@
         <v>22-4</v>
       </c>
       <c r="D158" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E158" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷1丁目15番2号</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="E158" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷1丁目15番2号</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I158" s="3"/>
       <c r="J158" s="1" t="str">
@@ -11237,20 +11309,20 @@
         <v>22-6</v>
       </c>
       <c r="D159" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E159" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷1丁目54番1号</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="E159" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷1丁目54番1号</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I159" s="3"/>
       <c r="J159" s="1" t="str">
@@ -11270,20 +11342,20 @@
         <v>22-7</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E160" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷1丁目54番1号</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I160" s="3"/>
       <c r="J160" s="1" t="str">
@@ -11303,20 +11375,20 @@
         <v>22-8</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E161" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷1丁目54番1号</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I161" s="3"/>
       <c r="J161" s="1" t="str">
@@ -11336,20 +11408,20 @@
         <v>26-1</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E162" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷1丁目11番2号</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>243</v>
-      </c>
-      <c r="E162" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷1丁目11番2号</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>244</v>
       </c>
       <c r="G162" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I162" s="3"/>
       <c r="J162" s="1" t="str">
@@ -11369,20 +11441,20 @@
         <v>26-2</v>
       </c>
       <c r="D163" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E163" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷1丁目24番</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="E163" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷1丁目24番</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I163" s="3"/>
       <c r="J163" s="1" t="str">
@@ -11402,20 +11474,20 @@
         <v>26-3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E164" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷1丁目24番</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="1" t="str">
@@ -11435,20 +11507,20 @@
         <v>26-4</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E165" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目53番1号</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="1" t="str">
@@ -11468,20 +11540,20 @@
         <v>26-5</v>
       </c>
       <c r="D166" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E166" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目51番1号</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="E166" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目51番1号</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="G166" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="1" t="str">
@@ -11501,20 +11573,20 @@
         <v>26-6</v>
       </c>
       <c r="D167" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E167" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目53番1号</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E167" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目53番1号</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="G167" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="1" t="str">
@@ -11534,20 +11606,20 @@
         <v>26-7</v>
       </c>
       <c r="D168" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E168" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目8番1号</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="E168" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目8番1号</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="1" t="str">
@@ -11567,20 +11639,20 @@
         <v>27-1</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E169" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目63番1号</v>
       </c>
       <c r="F169" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G169" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G169" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="H169" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="1" t="str">
@@ -11600,20 +11672,20 @@
         <v>27-2</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E170" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目27番3号</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="1" t="str">
@@ -11633,20 +11705,20 @@
         <v>27-3</v>
       </c>
       <c r="D171" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E171" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目58番16号</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E171" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目58番16号</v>
-      </c>
-      <c r="F171" s="1" t="s">
+      <c r="G171" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G171" s="1" t="s">
-        <v>263</v>
-      </c>
       <c r="H171" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="1" t="str">
@@ -11666,20 +11738,20 @@
         <v>27-4</v>
       </c>
       <c r="D172" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E172" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目63番1号</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E172" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目63番1号</v>
-      </c>
-      <c r="F172" s="1" t="s">
+      <c r="G172" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G172" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="H172" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="1" t="str">
@@ -11699,20 +11771,20 @@
         <v>27-5</v>
       </c>
       <c r="D173" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E173" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目47番先</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="E173" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目47番先</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>268</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="1" t="str">
@@ -11732,20 +11804,20 @@
         <v>27-6</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E174" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目48番3号</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="1" t="str">
@@ -11765,20 +11837,20 @@
         <v>27-7</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E175" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目45番1号</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I175" s="3"/>
       <c r="J175" s="1" t="str">
@@ -11798,20 +11870,20 @@
         <v>27-8</v>
       </c>
       <c r="D176" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E176" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目45番先</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E176" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚1丁目45番先</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="G176" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I176" s="3"/>
       <c r="J176" s="1" t="str">
@@ -11831,20 +11903,20 @@
         <v>28-1</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E177" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚2丁目8番1号</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I177" s="3"/>
       <c r="J177" s="1" t="str">
@@ -11864,20 +11936,20 @@
         <v>28-2</v>
       </c>
       <c r="D178" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E178" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚2丁目29番</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E178" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚2丁目29番</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="G178" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I178" s="3"/>
       <c r="J178" s="1" t="str">
@@ -11897,20 +11969,20 @@
         <v>28-3</v>
       </c>
       <c r="D179" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E179" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚2丁目32番8号</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="E179" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚2丁目32番8号</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="1" t="str">
@@ -11930,20 +12002,20 @@
         <v>28-4</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E180" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目2番9号</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="1" t="str">
@@ -11963,20 +12035,20 @@
         <v>28-5</v>
       </c>
       <c r="D181" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E181" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目10番1号</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="E181" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目10番1号</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="G181" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="1" t="str">
@@ -11996,20 +12068,20 @@
         <v>28-6</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E182" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目10番1号</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="1" t="str">
@@ -12029,20 +12101,20 @@
         <v>28-7</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E183" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目36番6号</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="1" t="str">
@@ -12062,20 +12134,20 @@
         <v>28-8</v>
       </c>
       <c r="D184" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E184" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目48番1号</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E184" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区笹塚3丁目48番1号</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="G184" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I184" s="3"/>
       <c r="J184" s="1" t="str">
@@ -12095,20 +12167,20 @@
         <v>29-1</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E185" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷2丁目56番6号</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I185" s="3"/>
       <c r="J185" s="1" t="str">
@@ -12128,20 +12200,20 @@
         <v>29-2</v>
       </c>
       <c r="D186" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E186" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目36番8号</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E186" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目36番8号</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="1" t="str">
@@ -12161,20 +12233,20 @@
         <v>29-3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E187" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目36番8号</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I187" s="3"/>
       <c r="J187" s="1" t="str">
@@ -12194,20 +12266,20 @@
         <v>29-4</v>
       </c>
       <c r="D188" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E188" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目38番2号</v>
+      </c>
+      <c r="F188" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="E188" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目38番2号</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I188" s="3"/>
       <c r="J188" s="1" t="str">
@@ -12227,20 +12299,20 @@
         <v>29-5</v>
       </c>
       <c r="D189" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="E189" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目49番1号</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="E189" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目49番1号</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I189" s="3"/>
       <c r="J189" s="1" t="str">
@@ -12260,20 +12332,20 @@
         <v>29-6</v>
       </c>
       <c r="D190" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E190" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目56番10号</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E190" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目56番10号</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="G190" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I190" s="3"/>
       <c r="J190" s="1" t="str">
@@ -12293,20 +12365,20 @@
         <v>29-7</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E191" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目49番1号</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="1" t="str">
@@ -12326,20 +12398,20 @@
         <v>29-8</v>
       </c>
       <c r="D192" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E192" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目70番1号</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="E192" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区幡ヶ谷3丁目70番1号</v>
-      </c>
-      <c r="F192" s="1" t="s">
+      <c r="G192" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>298</v>
-      </c>
       <c r="H192" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="1" t="str">
@@ -12359,20 +12431,20 @@
         <v>20-1</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E193" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目36番先</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G193" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="1" t="str">
@@ -12392,20 +12464,20 @@
         <v>20-2</v>
       </c>
       <c r="D194" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E194" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目40番18号</v>
+      </c>
+      <c r="F194" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E194" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目40番18号</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="G194" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="1" t="str">
@@ -12425,20 +12497,20 @@
         <v>20-3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E195" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目40番18号</v>
       </c>
       <c r="F195" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="H195" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="1" t="str">
@@ -12458,20 +12530,20 @@
         <v>20-4</v>
       </c>
       <c r="D196" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E196" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目46番1号</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E196" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目46番1号</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="G196" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="1" t="str">
@@ -12491,20 +12563,20 @@
         <v>20-5</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E197" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目40番18号</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="1" t="str">
@@ -12524,20 +12596,20 @@
         <v>20-6</v>
       </c>
       <c r="D198" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E198" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目47番8号</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E198" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目47番8号</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G198" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="1" t="str">
@@ -12557,20 +12629,20 @@
         <v>20-7</v>
       </c>
       <c r="D199" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E199" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区元代々木町51番19号</v>
+      </c>
+      <c r="F199" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E199" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区元代々木町51番19号</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>226</v>
-      </c>
       <c r="G199" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="1" t="str">
@@ -12590,20 +12662,20 @@
         <v>20-8</v>
       </c>
       <c r="D200" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E200" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目42番2号</v>
+      </c>
+      <c r="F200" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E200" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目42番2号</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="1" t="str">
@@ -12623,20 +12695,20 @@
         <v>21-1</v>
       </c>
       <c r="D201" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E201" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目1番1号</v>
+      </c>
+      <c r="F201" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E201" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目1番1号</v>
-      </c>
-      <c r="F201" s="1" t="s">
+      <c r="G201" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G201" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="H201" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="1" t="str">
@@ -12656,20 +12728,20 @@
         <v>21-2</v>
       </c>
       <c r="D202" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E202" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目1番15号</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E202" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目1番15号</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="G202" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="1" t="str">
@@ -12689,20 +12761,20 @@
         <v>21-3</v>
       </c>
       <c r="D203" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E203" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目68番1号</v>
+      </c>
+      <c r="F203" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E203" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目68番1号</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="G203" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="1" t="str">
@@ -12722,20 +12794,20 @@
         <v>21-4</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E204" s="2" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目16番4号</v>
       </c>
       <c r="F204" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G204" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="G204" s="3" t="s">
-        <v>441</v>
-      </c>
       <c r="H204" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="1" t="str">
@@ -12755,20 +12827,20 @@
         <v>21-5</v>
       </c>
       <c r="D205" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E205" s="2" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目14番15号</v>
+      </c>
+      <c r="F205" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E205" s="2" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目14番15号</v>
-      </c>
-      <c r="F205" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="G205" s="3" t="s">
-        <v>445</v>
-      </c>
       <c r="H205" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="1" t="str">
@@ -12788,20 +12860,20 @@
         <v>21-6</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E206" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目68番1号</v>
       </c>
       <c r="F206" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="G206" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="G206" s="3" t="s">
-        <v>447</v>
-      </c>
       <c r="H206" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I206" s="3"/>
       <c r="J206" s="1" t="str">
@@ -12821,20 +12893,20 @@
         <v>21-7</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E207" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目68番1号</v>
       </c>
       <c r="F207" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G207" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G207" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="H207" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="1" t="str">
@@ -12854,20 +12926,20 @@
         <v>21-8</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E208" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区代々木5丁目60番先</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G208" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="1" t="str">
@@ -12887,20 +12959,20 @@
         <v>22-1</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E209" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目18番6号</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="1" t="str">
@@ -12920,20 +12992,20 @@
         <v>22-2</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E210" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目46番4号</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G210" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="1" t="str">
@@ -12953,20 +13025,20 @@
         <v>22-3</v>
       </c>
       <c r="D211" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E211" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目46番4号</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G211" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E211" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目46番4号</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G211" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="H211" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="1" t="str">
@@ -12986,20 +13058,20 @@
         <v>22-5</v>
       </c>
       <c r="D212" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E212" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目41番22号先</v>
+      </c>
+      <c r="F212" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E212" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目41番22号先</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="G212" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="1" t="str">
@@ -13019,20 +13091,20 @@
         <v>23-1</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E213" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区上原2丁目2番20号</v>
       </c>
       <c r="F213" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="1" t="str">
@@ -13052,20 +13124,20 @@
         <v>23-2</v>
       </c>
       <c r="D214" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E214" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目4番3号</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="E214" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目4番3号</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="1" t="str">
@@ -13085,20 +13157,20 @@
         <v>23-3</v>
       </c>
       <c r="D215" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E215" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目38番2号</v>
+      </c>
+      <c r="F215" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E215" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目38番2号</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="G215" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="1" t="str">
@@ -13118,20 +13190,20 @@
         <v>23-4</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E216" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目15番15号</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="1" t="str">
@@ -13151,20 +13223,20 @@
         <v>23-5</v>
       </c>
       <c r="D217" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E217" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目28番4号</v>
+      </c>
+      <c r="F217" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E217" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目28番4号</v>
-      </c>
-      <c r="F217" s="1" t="s">
+      <c r="G217" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G217" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="H217" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="1" t="str">
@@ -13184,20 +13256,20 @@
         <v>23-6</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E218" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目28番4号</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G218" s="1" t="s">
         <v>35</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="1" t="str">
@@ -13217,20 +13289,20 @@
         <v>23-7</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E219" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区富ヶ谷2丁目2番13号</v>
       </c>
       <c r="F219" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G219" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G219" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="H219" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I219" s="3"/>
       <c r="J219" s="1" t="str">
@@ -13250,20 +13322,20 @@
         <v>23-8</v>
       </c>
       <c r="D220" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E220" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原2丁目6番4号</v>
+      </c>
+      <c r="F220" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E220" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原2丁目6番4号</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I220" s="3"/>
       <c r="J220" s="1" t="str">
@@ -13283,20 +13355,20 @@
         <v>24-1</v>
       </c>
       <c r="D221" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E221" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目31番</v>
+      </c>
+      <c r="F221" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E221" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原1丁目31番</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="G221" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="1" t="str">
@@ -13316,20 +13388,20 @@
         <v>24-2</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E222" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目13番10号</v>
       </c>
       <c r="F222" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G222" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G222" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="H222" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="1" t="str">
@@ -13349,20 +13421,20 @@
         <v>24-3</v>
       </c>
       <c r="D223" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E223" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目13番20号</v>
+      </c>
+      <c r="F223" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E223" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目13番20号</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="G223" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="1" t="str">
@@ -13382,20 +13454,20 @@
         <v>24-4</v>
       </c>
       <c r="D224" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E224" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目13番20号</v>
       </c>
       <c r="F224" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G224" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G224" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H224" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I224" s="3"/>
       <c r="J224" s="1" t="str">
@@ -13415,20 +13487,20 @@
         <v>24-5</v>
       </c>
       <c r="D225" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E225" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目32番13号</v>
+      </c>
+      <c r="F225" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E225" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目32番13号</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="G225" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I225" s="3"/>
       <c r="J225" s="1" t="str">
@@ -13448,20 +13520,20 @@
         <v>24-6</v>
       </c>
       <c r="D226" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E226" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目41番2号</v>
+      </c>
+      <c r="F226" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="E226" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目41番2号</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="G226" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="1" t="str">
@@ -13481,20 +13553,20 @@
         <v>24-7</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E227" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区上原3丁目41番2号</v>
       </c>
       <c r="F227" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G227" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G227" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="H227" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="1" t="str">
@@ -13514,20 +13586,20 @@
         <v>24-8</v>
       </c>
       <c r="D228" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E228" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区大山町6番8号</v>
+      </c>
+      <c r="F228" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E228" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区大山町6番8号</v>
-      </c>
-      <c r="F228" s="1" t="s">
+      <c r="G228" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G228" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="H228" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="1" t="str">
@@ -13547,20 +13619,20 @@
         <v>25-1</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E229" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目28番9号</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I229" s="3"/>
       <c r="J229" s="1" t="str">
@@ -13580,20 +13652,20 @@
         <v>25-2</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E230" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原1丁目20番</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I230" s="3"/>
       <c r="J230" s="1" t="str">
@@ -13613,20 +13685,20 @@
         <v>25-3</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E231" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目22番1号</v>
       </c>
       <c r="F231" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="G231" s="1" t="s">
-        <v>232</v>
-      </c>
       <c r="H231" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I231" s="3"/>
       <c r="J231" s="1" t="str">
@@ -13646,20 +13718,20 @@
         <v>25-4</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E232" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目22番1号</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="1" t="str">
@@ -13679,20 +13751,20 @@
         <v>25-5</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E233" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目19番1号</v>
       </c>
       <c r="F233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G233" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G233" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="H233" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="1" t="str">
@@ -13712,20 +13784,20 @@
         <v>25-6</v>
       </c>
       <c r="D234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E234" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目34番先</v>
+      </c>
+      <c r="F234" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="E234" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原2丁目34番先</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="1" t="str">
@@ -13745,20 +13817,20 @@
         <v>25-7</v>
       </c>
       <c r="D235" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E235" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原3丁目34番18号</v>
+      </c>
+      <c r="F235" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E235" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原3丁目34番18号</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G235" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="1" t="str">
@@ -13778,20 +13850,20 @@
         <v>25-8</v>
       </c>
       <c r="D236" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E236" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区西原3丁目15番1号</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E236" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区西原3丁目15番1号</v>
-      </c>
-      <c r="F236" s="1" t="s">
+      <c r="G236" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G236" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="H236" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="1" t="str">
@@ -13810,26 +13882,28 @@
         <f>テーブル1[[#This Row],[投票区掲示場番号]]&amp;"-"&amp;テーブル1[[#This Row],[枝番]]</f>
         <v>7-5</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E237" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西1丁目19番1号</v>
+      </c>
+      <c r="F237" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E237" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿南1丁目19番1号</v>
-      </c>
-      <c r="F237" s="1" t="s">
+      <c r="G237" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G237" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H237" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I237" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I237" s="3">
+        <v>1</v>
+      </c>
       <c r="J237" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
-        <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区恵比寿南1丁目19番1号' target='_blank'&gt;7-5 恵比寿南1丁目19番1号 恵比寿公園 東側植込み&lt;/a&gt;&lt;/li&gt;</v>
+        <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区恵比寿西1丁目19番1号' target='_blank'&gt;7-5 恵比寿西1丁目19番1号 恵比寿公園 東側植込み&lt;/a&gt;&lt;/li&gt;</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="14" x14ac:dyDescent="0.15">
@@ -13844,22 +13918,24 @@
         <v>7-6</v>
       </c>
       <c r="D238" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E238" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西1丁目23番1号</v>
+      </c>
+      <c r="F238" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E238" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西1丁目23番1号</v>
-      </c>
-      <c r="F238" s="1" t="s">
+      <c r="G238" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G238" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="H238" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I238" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I238" s="3">
+        <v>2</v>
+      </c>
       <c r="J238" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区恵比寿西1丁目23番1号' target='_blank'&gt;7-6 恵比寿西1丁目23番1号 長谷戸小学校 西側鉄柵&lt;/a&gt;&lt;/li&gt;</v>
@@ -13877,22 +13953,24 @@
         <v>7-7</v>
       </c>
       <c r="D239" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E239" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西2丁目15番12号</v>
+      </c>
+      <c r="F239" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E239" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西2丁目15番12号</v>
-      </c>
-      <c r="F239" s="1" t="s">
+      <c r="G239" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G239" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H239" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I239" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I239" s="3">
+        <v>4</v>
+      </c>
       <c r="J239" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区恵比寿西2丁目15番12号' target='_blank'&gt;7-7 恵比寿西2丁目15番12号 代官山えびすにし保育室 西側金網&lt;/a&gt;&lt;/li&gt;</v>
@@ -13910,22 +13988,24 @@
         <v>7-8</v>
       </c>
       <c r="D240" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E240" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西2丁目8番1号</v>
+      </c>
+      <c r="F240" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E240" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区恵比寿西2丁目8番1号</v>
-      </c>
-      <c r="F240" s="1" t="s">
+      <c r="G240" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G240" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H240" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I240" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I240" s="3">
+        <v>3</v>
+      </c>
       <c r="J240" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区恵比寿西2丁目8番1号' target='_blank'&gt;7-8 恵比寿西2丁目8番1号 恵比寿区民施設（恵比寿保育園） 入口横壁面&lt;/a&gt;&lt;/li&gt;</v>
@@ -13943,22 +14023,24 @@
         <v>8-1</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E241" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区鶯谷町14番33号</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I241" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I241" s="3">
+        <v>10</v>
+      </c>
       <c r="J241" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区鶯谷町14番33号' target='_blank'&gt;8-1 鶯谷町14番33号 うぐいす公園 植込み&lt;/a&gt;&lt;/li&gt;</v>
@@ -13976,22 +14058,24 @@
         <v>8-2</v>
       </c>
       <c r="D242" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E242" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区猿楽町12番35号</v>
+      </c>
+      <c r="F242" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E242" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区猿楽町12番35号</v>
-      </c>
-      <c r="F242" s="1" t="s">
+      <c r="G242" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G242" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="H242" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I242" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I242" s="3">
+        <v>6</v>
+      </c>
       <c r="J242" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区猿楽町12番35号' target='_blank'&gt;8-2 猿楽町12番35号 猿楽小学校 コンクリート塀&lt;/a&gt;&lt;/li&gt;</v>
@@ -14009,22 +14093,24 @@
         <v>8-3</v>
       </c>
       <c r="D243" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E243" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区代官山町7番9号</v>
+      </c>
+      <c r="F243" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E243" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区代官山町7番9号</v>
-      </c>
-      <c r="F243" s="1" t="s">
+      <c r="G243" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G243" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="H243" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I243" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I243" s="3">
+        <v>5</v>
+      </c>
       <c r="J243" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区代官山町7番9号' target='_blank'&gt;8-3 代官山町7番9号 代官山保育園 南東側鉄柵&lt;/a&gt;&lt;/li&gt;</v>
@@ -14042,22 +14128,24 @@
         <v>8-4</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E244" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区鶯谷町7番21号</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I244" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I244" s="3">
+        <v>9</v>
+      </c>
       <c r="J244" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区鶯谷町7番21号' target='_blank'&gt;8-4 鶯谷町7番21号 鶯谷児童遊園地 植込み&lt;/a&gt;&lt;/li&gt;</v>
@@ -14075,22 +14163,24 @@
         <v>8-5</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E245" s="4" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区鶯谷町9番1号</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I245" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I245" s="3">
+        <v>8</v>
+      </c>
       <c r="J245" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区鶯谷町9番1号' target='_blank'&gt;8-5 鶯谷町9番1号 鉢山中学校 石垣&lt;/a&gt;&lt;/li&gt;</v>
@@ -14108,22 +14198,24 @@
         <v>8-8</v>
       </c>
       <c r="D246" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E246" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区猿楽町12番5号</v>
+      </c>
+      <c r="F246" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E246" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区猿楽町12番5号</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="G246" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I246" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I246" s="3">
+        <v>7</v>
+      </c>
       <c r="J246" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区猿楽町12番5号' target='_blank'&gt;8-8 猿楽町12番5号 猿楽古住代屋敷公園 正門横植込み&lt;/a&gt;&lt;/li&gt;</v>
@@ -14141,22 +14233,24 @@
         <v>9-1</v>
       </c>
       <c r="D247" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E247" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区桜丘町23番21号</v>
+      </c>
+      <c r="F247" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="E247" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区桜丘町23番21号</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>389</v>
-      </c>
       <c r="G247" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I247" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I247" s="3">
+        <v>13</v>
+      </c>
       <c r="J247" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区桜丘町23番21号' target='_blank'&gt;9-1 桜丘町23番21号 渋谷区文化総合センター大和田① 南側フェンス&lt;/a&gt;&lt;/li&gt;</v>
@@ -14174,22 +14268,24 @@
         <v>9-2</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E248" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区桜丘町20番1号</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I248" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I248" s="3">
+        <v>12</v>
+      </c>
       <c r="J248" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区桜丘町20番1号' target='_blank'&gt;9-2 桜丘町20番1号 渋谷インフォスタワー裏哲学の森 南側植込み&lt;/a&gt;&lt;/li&gt;</v>
@@ -14207,22 +14303,24 @@
         <v>9-3</v>
       </c>
       <c r="D249" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E249" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区桜丘町11番8号</v>
+      </c>
+      <c r="F249" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="E249" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区桜丘町11番8号</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>48</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I249" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I249" s="3">
+        <v>11</v>
+      </c>
       <c r="J249" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区桜丘町11番8号' target='_blank'&gt;9-3 桜丘町11番8号 ツクイ渋谷桜丘 西側壁面&lt;/a&gt;&lt;/li&gt;</v>
@@ -14240,22 +14338,24 @@
         <v>9-4</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E250" s="1" t="str">
         <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
         <v>https://www.google.co.jp/maps/place/渋谷区桜丘町23番21号</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I250" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I250" s="3">
+        <v>14</v>
+      </c>
       <c r="J250" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区桜丘町23番21号' target='_blank'&gt;9-4 桜丘町23番21号 渋谷区文化総合センター大和田② 西側フェンス&lt;/a&gt;&lt;/li&gt;</v>
@@ -14273,22 +14373,24 @@
         <v>9-7</v>
       </c>
       <c r="D251" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E251" s="1" t="str">
+        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
+        <v>https://www.google.co.jp/maps/place/渋谷区桜丘町30番1号</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="E251" s="1" t="str">
-        <f>"https://www.google.co.jp/maps/place/渋谷区"&amp;テーブル1[[#This Row],[住所]]</f>
-        <v>https://www.google.co.jp/maps/place/渋谷区桜丘町30番1号</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>398</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="I251" s="3"/>
+        <v>556</v>
+      </c>
+      <c r="I251" s="3">
+        <v>15</v>
+      </c>
       <c r="J251" s="1" t="str">
         <f>"&lt;li&gt;&lt;a href='"&amp;テーブル1[[#This Row],[列2]]&amp;"' target='_blank'&gt;"&amp;テーブル1[[#This Row],[列1]]&amp;" "&amp;テーブル1[[#This Row],[住所]]&amp;" "&amp;テーブル1[[#This Row],[設置場所]]&amp;" "&amp;テーブル1[[#This Row],[設置位置]]&amp;"&lt;/a&gt;&lt;/li&gt;"</f>
         <v>&lt;li&gt;&lt;a href='https://www.google.co.jp/maps/place/渋谷区桜丘町30番1号' target='_blank'&gt;9-7 桜丘町30番1号 桜丘公園 植込み&lt;/a&gt;&lt;/li&gt;</v>
